--- a/SDG Financing Simplified model (Egypt)/v7/output/modeloutput_cod.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v7/output/modeloutput_cod.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView yWindow="2085" windowWidth="17250" windowHeight="9945"/>
+    <workbookView windowWidth="17030" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,14 +146,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,48 +602,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,97 +656,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -816,6 +809,1072 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output per Capita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$AD$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.512284903362411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.600796328760117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.677469232380468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.737201498944781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.783520708168577</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.818055814479289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.849608614782499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.874283113931479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.897613048806042</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.916870878190995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.935221917357074</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94967111007885</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.966573414321744</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.979482405625299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.987966524800357</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.992178319663163</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.991581543959681</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.987166659596458</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.981412735938529</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.975013201628877</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.968520544881399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.962124220957533</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.955244815231185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.948162342769752</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94121673074364</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.934695701508345</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92839452653186</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.921918900756252</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.915680375939483</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumption per Capita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$AD$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.326342073787088</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38027592830559</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.378855825165636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.377786332277928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.377622806260019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.378394858589969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.380189931937004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.383245733462916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.387394240295051</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.393164971072948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.400553143532243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.409655516095886</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.420691981794074</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.433578182726287</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.448733075986824</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.466281636589459</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.486482567835788</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.509493448052208</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53575416276644</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.565326022408181</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.598648671337591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.636111348149375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.678073646481494</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.7251010340751</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.73677728373937</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.734448973072457</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.734577174902647</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72704280609122</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72704280609122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="187240386"/>
+        <c:axId val="533133178"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="187240386"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533133178"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="533133178"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187240386"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>178435</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>648970</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2921635" y="2604135"/>
+        <a:ext cx="4585335" cy="2742565"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1079,7 +2138,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1982,9 +3041,6 @@
       <c r="Y10">
         <v>2.13214965905066</v>
       </c>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
       <c r="AC10">
         <v>0.414386405754403</v>
       </c>
@@ -2062,9 +3118,6 @@
       <c r="Y11">
         <v>0.0139788061196313</v>
       </c>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
       <c r="AC11">
         <v>0.00255860278842391</v>
       </c>
@@ -2164,5 +3217,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>